--- a/docs/Market_Pulse_Data_Dictionary.xlsx
+++ b/docs/Market_Pulse_Data_Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11400"/>
+    <workbookView windowWidth="25600" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+  <si>
+    <t>Raw Data Fields</t>
+  </si>
   <si>
     <t>Field</t>
   </si>
@@ -65,28 +68,28 @@
     <t>open</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Opening Price</t>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>Opening Price in USD</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>Highest Price</t>
+    <t>Highest price during trading day in USD</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>Lowest Price</t>
+    <t>Lowest price during trading day in USD</t>
   </si>
   <si>
     <t>close</t>
   </si>
   <si>
-    <t>Closing Price</t>
+    <t>Closing Price in USD</t>
   </si>
   <si>
     <t>volume</t>
@@ -96,6 +99,51 @@
   </si>
   <si>
     <t>Total Shares Traded</t>
+  </si>
+  <si>
+    <t>Processed Data Fields</t>
+  </si>
+  <si>
+    <t>daily_return</t>
+  </si>
+  <si>
+    <t>data/staged/processed_stocks.csv</t>
+  </si>
+  <si>
+    <t>Log daily return: ln(close_t/close_t-1)</t>
+  </si>
+  <si>
+    <t>volatility_14d</t>
+  </si>
+  <si>
+    <t>14-day rolling volatility (annualized using √252)</t>
+  </si>
+  <si>
+    <t>simple_return</t>
+  </si>
+  <si>
+    <t>Simple daily return: (close_t/close_t-1) - 1</t>
+  </si>
+  <si>
+    <t>cumulative_return</t>
+  </si>
+  <si>
+    <t>Cumulative return from start of period</t>
+  </si>
+  <si>
+    <t>DATA QUALITY NOTES</t>
+  </si>
+  <si>
+    <t>- Missing Values Expected: First row per ticker has NaN daily_return (no previous price)</t>
+  </si>
+  <si>
+    <t>- Rolling Window: First 13 rows per ticker have NaN volatility_14d (insufficient data for 14-day window)</t>
+  </si>
+  <si>
+    <t>- Data Range: Approximately 250 trading days per ticker (one year of market data)</t>
+  </si>
+  <si>
+    <t>- Annualization Factor: Volatility multiplied by √252 to convert daily to annual measure</t>
   </si>
 </sst>
 </file>
@@ -108,9 +156,17 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -589,141 +645,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +793,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1259,130 +1318,235 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.72727272727273" customWidth="1"/>
+    <col min="1" max="1" width="26.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="9.90909090909091" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="35.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="32.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="44.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="18.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Market_Pulse_Data_Dictionary.xlsx
+++ b/docs/Market_Pulse_Data_Dictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>Raw Data Fields</t>
   </si>
@@ -131,19 +131,184 @@
     <t>Cumulative return from start of period</t>
   </si>
   <si>
+    <t>GARCH Forecast Fields</t>
+  </si>
+  <si>
+    <t>forecast_date</t>
+  </si>
+  <si>
+    <t>data/staged/forecasts/all_tickers_garch_forecasts.csv</t>
+  </si>
+  <si>
+    <t>Future trading date for forecast</t>
+  </si>
+  <si>
+    <t>forecast_volatility</t>
+  </si>
+  <si>
+    <t>Predicted volatility (annualized)</t>
+  </si>
+  <si>
+    <t>forecast_variance</t>
+  </si>
+  <si>
+    <t>Predicted variance (volatility squared)</t>
+  </si>
+  <si>
+    <t>forecast_horizon</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Days ahead from model fitting date (1-14)</t>
+  </si>
+  <si>
+    <t>GARCH Model Comparison Fields</t>
+  </si>
+  <si>
+    <t>aic</t>
+  </si>
+  <si>
+    <t>data/staged/forecasts/garch_model_comparison.csv</t>
+  </si>
+  <si>
+    <t>Akaike Information Criterion (lower = better fit)</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>Bayesian Information Criterion</t>
+  </si>
+  <si>
+    <t>loglikelihood</t>
+  </si>
+  <si>
+    <t>Model log-likelihood value</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>GARCH constant term</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>ARCH coefficient (volatility shock sensitivity)</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>GARCH coefficient (volatility persistence)</t>
+  </si>
+  <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>Alpha + Beta (volatility clustering strength)</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>Number of observations used in model fitting</t>
+  </si>
+  <si>
     <t>DATA QUALITY NOTES</t>
   </si>
   <si>
-    <t>- Missing Values Expected: First row per ticker has NaN daily_return (no previous price)</t>
-  </si>
-  <si>
-    <t>- Rolling Window: First 13 rows per ticker have NaN volatility_14d (insufficient data for 14-day window)</t>
-  </si>
-  <si>
-    <t>- Data Range: Approximately 250 trading days per ticker (one year of market data)</t>
-  </si>
-  <si>
-    <t>- Annualization Factor: Volatility multiplied by √252 to convert daily to annual measure</t>
+    <r>
+      <t>Expected Missing Values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Daily Returns: First row per ticker has NaN daily_return (no previous price for calculation) Rolling Volatility: First 13 rows per ticker have NaN volatility_14d (insufficient data for 14-day window) Total Expected NaN: 4 daily_return values, 56 volatility values across 4 tickers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Range &amp; Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Time Period: Approximately 250 trading days per ticker (one year of market data) Date Range: July 29, 2024 - July 28, 2025 Tickers Covered: AAPL, GOOGL, MSFT, TSLA (4 major technology stocks)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calculation Details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annualization Factor: Volatility multiplied by √252 to convert daily to annual measure Log Returns: Preferred for statistical modeling due to additive properties and normality assumptions Rolling Window: 14-day period chosen for short-term volatility assessment relevant to trading decisions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GARCH Model Specifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Model Type: GARCH(1,1) with normal error distribution Persistence Threshold: Values &lt; 1.0 indicate stationary volatility process Forecast Horizon: 14 trading days ahead for tactical decision-making Model Selection: AIC-based ranking with lower values indicating better model fit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Validation Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Price Constraints: All OHLC prices must be positive values Volume Constraints: Volume must be non-negative integer Date Constraints: Must be valid trading dates within expected range Return Constraints: Extreme returns (&gt;50% daily change) flagged for review Volatility Constraints: Negative volatility values indicate calculation errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Power BI Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Primary Dataset: processed_stocks.csv (1,000 rows, 11 columns) Forecast Dataset: all_tickers_garch_forecasts.csv (56 rows, 5 columns) Relationship: Many-to-many on ticker field Measures: 12 custom DAX measures for advanced analytics and KPI calculations</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -775,11 +940,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1318,17 +1486,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="38.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="9.90909090909091" customWidth="1"/>
-    <col min="3" max="3" width="32.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="50.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="44.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,29 +1692,245 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" ht="18.5" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="18" ht="18.5" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>38</v>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
